--- a/data/trans_orig/Q47-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>173,83; 175,16</t>
+          <t>173,89; 175,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>174,45; 175,88</t>
+          <t>174,45; 175,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>174,29; 175,76</t>
+          <t>174,25; 175,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>174,51; 175,67</t>
+          <t>174,56; 175,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>162,37; 163,75</t>
+          <t>162,32; 163,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>162,92; 164,38</t>
+          <t>162,81; 164,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>162,26; 163,79</t>
+          <t>162,32; 163,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>163,1; 164,14</t>
+          <t>163,15; 164,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>169,42; 170,72</t>
+          <t>169,46; 170,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169,66; 171,06</t>
+          <t>169,67; 171,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168,96; 170,41</t>
+          <t>168,88; 170,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>169,23; 170,23</t>
+          <t>169,19; 170,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>173,84; 175,23</t>
+          <t>173,88; 175,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>174,49; 175,85</t>
+          <t>174,45; 175,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>174,24; 175,89</t>
+          <t>174,3; 175,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>174,03; 175,32</t>
+          <t>173,93; 175,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>162,19; 163,46</t>
+          <t>162,22; 163,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>162,27; 163,87</t>
+          <t>162,27; 163,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>162,86; 164,2</t>
+          <t>162,86; 164,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>162,76; 163,82</t>
+          <t>162,71; 163,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>167,97; 169,28</t>
+          <t>167,96; 169,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>169,1; 170,5</t>
+          <t>169,06; 170,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>168,7; 170,13</t>
+          <t>168,64; 170,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>168,83; 170,03</t>
+          <t>168,82; 170,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,05; 173,36</t>
+          <t>172,13; 173,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>171,57; 172,78</t>
+          <t>171,6; 172,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>172,62; 173,95</t>
+          <t>172,59; 173,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172,19; 179,71</t>
+          <t>172,22; 179,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,6; 161,79</t>
+          <t>159,52; 161,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>159,58; 161,28</t>
+          <t>159,61; 161,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>159,76; 161,94</t>
+          <t>159,79; 162,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>161,22; 162,92</t>
+          <t>161,23; 162,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169,23; 170,55</t>
+          <t>169,19; 170,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168,24; 169,52</t>
+          <t>168,24; 169,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169,53; 170,98</t>
+          <t>169,66; 171,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>169,26; 177,94</t>
+          <t>169,31; 178,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>171,75; 172,51</t>
+          <t>171,73; 172,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171,77; 172,65</t>
+          <t>171,75; 172,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172,98; 173,89</t>
+          <t>172,98; 173,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172,58; 173,65</t>
+          <t>172,57; 173,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>161,53; 162,51</t>
+          <t>161,48; 162,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>161,04; 162,05</t>
+          <t>161,07; 162,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,82; 162,76</t>
+          <t>161,82; 162,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>157,76; 162,42</t>
+          <t>157,81; 162,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>168,03; 168,82</t>
+          <t>168,05; 168,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>167,5; 168,39</t>
+          <t>167,6; 168,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>168,3; 169,19</t>
+          <t>168,37; 169,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>163,46; 168,6</t>
+          <t>163,19; 168,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>170,93; 172,63</t>
+          <t>170,97; 172,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>170,73; 172,12</t>
+          <t>170,69; 172,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>171,63; 172,9</t>
+          <t>171,68; 172,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>171,7; 173,46</t>
+          <t>171,69; 173,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>159,32; 160,47</t>
+          <t>159,41; 160,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>159,25; 160,27</t>
+          <t>159,28; 160,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>159,86; 160,84</t>
+          <t>159,82; 160,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>158,17; 160,82</t>
+          <t>158,16; 160,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>163,83; 165,1</t>
+          <t>163,85; 165,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>164,04; 165,13</t>
+          <t>164,0; 165,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>165,33; 166,42</t>
+          <t>165,25; 166,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>162,16; 165,57</t>
+          <t>162,45; 165,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>175,14; 176,87</t>
+          <t>175,12; 176,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>174,79; 176,52</t>
+          <t>174,88; 176,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>175,68; 177,38</t>
+          <t>175,54; 177,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>174,82; 177,66</t>
+          <t>174,96; 177,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>159,21; 159,99</t>
+          <t>159,19; 159,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>159,82; 160,63</t>
+          <t>159,86; 160,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>159,97; 160,75</t>
+          <t>159,97; 160,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>160,99; 161,9</t>
+          <t>161,01; 161,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>162,31; 163,28</t>
+          <t>162,31; 163,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>162,85; 163,83</t>
+          <t>162,84; 163,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>163,28; 164,36</t>
+          <t>163,35; 164,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>164,39; 165,99</t>
+          <t>164,38; 165,96</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>172,92; 173,42</t>
+          <t>172,88; 173,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>172,86; 173,38</t>
+          <t>172,87; 173,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>173,54; 174,12</t>
+          <t>173,56; 174,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>173,59; 176,11</t>
+          <t>173,61; 176,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,12</t>
+          <t>160,63; 161,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>160,79; 161,26</t>
+          <t>160,78; 161,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,27 +1599,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>160,04; 161,98</t>
+          <t>160,19; 161,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,16</t>
+          <t>166,7; 167,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>166,77; 167,25</t>
+          <t>166,8; 167,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>167,31; 167,8</t>
+          <t>167,33; 167,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>166,69; 169,39</t>
+          <t>166,79; 169,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q47-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
